--- a/AdvancedDocument/Work/深圳/深圳 面试.xlsx
+++ b/AdvancedDocument/Work/深圳/深圳 面试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>投递公司</t>
   </si>
@@ -32,13 +32,97 @@
   </si>
   <si>
     <t>附加信息</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>深圳市个个学互联网科技有限公司</t>
+  </si>
+  <si>
+    <t>.net</t>
+  </si>
+  <si>
+    <t>自己打电话过来的，并不想去。</t>
+  </si>
+  <si>
+    <t>中软国际科技服务有限公司</t>
+  </si>
+  <si>
+    <t>Net开发工程师</t>
+  </si>
+  <si>
+    <t>http://jobs.51job.com/shenzhen-nsq/79987274.html?s=0</t>
+  </si>
+  <si>
+    <t>看准网</t>
+  </si>
+  <si>
+    <t>http://www.kanzhun.com/gsr17749p2.html?q=%E8%BD%AF%E4%BB%B6%E5%BC%80%E5%8F%91%E5%B7%A5%E7%A8%8B%E5%B8%88&amp;ka=paging2</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>又是自己打电话过来的？ 外包公司？会不会外包到其它公司做事情。</t>
+  </si>
+  <si>
+    <t>携程C#软件开发工程师</t>
+  </si>
+  <si>
+    <t>http://jobs.51job.com/shenzhen-nsq/78415076.html?s=0</t>
+  </si>
+  <si>
+    <t>携程C#软件开发工程师（深圳）</t>
+  </si>
+  <si>
+    <t>深圳网蓝通用科技有限公司</t>
+  </si>
+  <si>
+    <t>C#高级软件工程师</t>
+  </si>
+  <si>
+    <t>2016.8.10</t>
+  </si>
+  <si>
+    <t>深圳市友华通信技术有限公司</t>
+  </si>
+  <si>
+    <t>C#程序开发</t>
+  </si>
+  <si>
+    <t>http://jobs.51job.com/shenzhen-nsq/67926457.html?s=0</t>
+  </si>
+  <si>
+    <t>深圳隽思信息科技有限公司</t>
+  </si>
+  <si>
+    <t>C#高级软件开发工程师</t>
+  </si>
+  <si>
+    <t>http://jobs.51job.com/shenzhen-nsq/62252838.html?s=0</t>
+  </si>
+  <si>
+    <t>商金投资管理（深圳）有限公司</t>
+  </si>
+  <si>
+    <t>http://jobs.51job.com/shenzhen/80126675.html</t>
+  </si>
+  <si>
+    <t>08.11 11:00</t>
+  </si>
+  <si>
+    <t>08.11 10:00 到10点半</t>
+  </si>
+  <si>
+    <t>08.11  16:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,26 +131,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6C6C6C"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,16 +168,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,50 +484,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="深圳市个个学互联网科技有限公司" display="http://jobs.51job.com/all/co3981488.html"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="中软国际科技服务有限公司" display="http://jobs.51job.com/all/co2555714.html"/>
+    <hyperlink ref="A5" r:id="rId3" tooltip="深圳网蓝通用科技有限公司" display="http://jobs.51job.com/all/co254579.html"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="深圳市友华通信技术有限公司" display="http://jobs.51job.com/all/co2981055.html"/>
+    <hyperlink ref="A7" r:id="rId5" tooltip="深圳隽思信息科技有限公司" display="http://jobs.51job.com/all/co3341769.html"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="商金投资管理（深圳）有限公司" display="http://jobs.51job.com/all/co3854474.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AdvancedDocument/Work/深圳/深圳 面试.xlsx
+++ b/AdvancedDocument/Work/深圳/深圳 面试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>投递公司</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>08.11  16:00</t>
+  </si>
+  <si>
+    <t>未去</t>
+  </si>
+  <si>
+    <t>太远</t>
+  </si>
+  <si>
+    <t>深圳国泰安教育技术股份有限公司</t>
+  </si>
+  <si>
+    <t>08.12  15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .NET高级开发工程师</t>
+  </si>
+  <si>
+    <t>明天暂时就这家，这两天被未投简历的面试电话弄疯了，先休息一下。</t>
+  </si>
+  <si>
+    <t>http://www.kanzhun.com/gso1220612.html?ka=com-blocker1-overview</t>
   </si>
 </sst>
 </file>
@@ -484,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -493,7 +514,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="7" width="15.28515625" customWidth="1"/>
@@ -542,6 +563,9 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -631,6 +655,32 @@
       </c>
       <c r="D8" t="s">
         <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/AdvancedDocument/Work/深圳/深圳 面试.xlsx
+++ b/AdvancedDocument/Work/深圳/深圳 面试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>投递公司</t>
   </si>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t>http://www.kanzhun.com/gso1220612.html?ka=com-blocker1-overview</t>
+  </si>
+  <si>
+    <t>迈智微电子（上海）有限公司（美资软件公司）</t>
+  </si>
+  <si>
+    <t>http://jobs.51job.com/shenzhen-nsq/61462014.html?s=0</t>
+  </si>
+  <si>
+    <t>Windows 开发</t>
+  </si>
+  <si>
+    <t>8.17 13:30</t>
+  </si>
+  <si>
+    <t>深圳市天方达健信科技有限公司</t>
+  </si>
+  <si>
+    <t>.net高级软件工程师</t>
+  </si>
+  <si>
+    <t>8:15  14:30</t>
+  </si>
+  <si>
+    <t>智联</t>
   </si>
 </sst>
 </file>
@@ -505,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,7 +604,7 @@
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -679,8 +703,41 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -691,8 +748,11 @@
     <hyperlink ref="A6" r:id="rId4" tooltip="深圳市友华通信技术有限公司" display="http://jobs.51job.com/all/co2981055.html"/>
     <hyperlink ref="A7" r:id="rId5" tooltip="深圳隽思信息科技有限公司" display="http://jobs.51job.com/all/co3341769.html"/>
     <hyperlink ref="A8" r:id="rId6" tooltip="商金投资管理（深圳）有限公司" display="http://jobs.51job.com/all/co3854474.html"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="A12" r:id="rId9" tooltip="迈智微电子（上海）有限公司（美资软件公司）" display="http://jobs.51job.com/all/co189922.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>